--- a/Code/Results/Cases/Case_1_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_145/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.277891033484078</v>
+        <v>7.794976100260179</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.14474527485436</v>
+        <v>10.21134977393889</v>
       </c>
       <c r="E2">
-        <v>14.72646967770225</v>
+        <v>8.731730803213969</v>
       </c>
       <c r="F2">
-        <v>92.41813693635072</v>
+        <v>76.2614930007023</v>
       </c>
       <c r="G2">
-        <v>1.846343147735744</v>
+        <v>3.825774641169331</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.110297523021794</v>
+        <v>8.621513945549719</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>51.75202584102232</v>
+        <v>38.77136098768339</v>
       </c>
       <c r="N2">
-        <v>12.09282961976582</v>
+        <v>18.22418924973784</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.911215159856559</v>
+        <v>7.722960676774888</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.2682595069706</v>
+        <v>9.843964667129578</v>
       </c>
       <c r="E3">
-        <v>13.40066229600776</v>
+        <v>8.354471742924877</v>
       </c>
       <c r="F3">
-        <v>83.65082777834797</v>
+        <v>75.42697612543434</v>
       </c>
       <c r="G3">
-        <v>1.911312568770131</v>
+        <v>3.838375321582287</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.14133336894652</v>
+        <v>8.638871752506716</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>46.89545281588843</v>
+        <v>38.04842021022784</v>
       </c>
       <c r="N3">
-        <v>12.43561323234169</v>
+        <v>18.28922054129934</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.681015669031104</v>
+        <v>7.680252210733521</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.17707681038832</v>
+        <v>9.61730752580022</v>
       </c>
       <c r="E4">
-        <v>12.62723559114702</v>
+        <v>8.113523636775536</v>
       </c>
       <c r="F4">
-        <v>78.74627774170861</v>
+        <v>74.94744898485799</v>
       </c>
       <c r="G4">
-        <v>1.947449900370204</v>
+        <v>3.846445018704193</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.162868891695309</v>
+        <v>8.650175505366853</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>44.02054032784085</v>
+        <v>37.6115184348304</v>
       </c>
       <c r="N4">
-        <v>12.6298334747458</v>
+        <v>18.33178553636429</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.585966648886103</v>
+        <v>7.663246776962808</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.73968812959562</v>
+        <v>9.524819305854381</v>
       </c>
       <c r="E5">
-        <v>12.31677031231975</v>
+        <v>8.013056337279645</v>
       </c>
       <c r="F5">
-        <v>76.88182000940506</v>
+        <v>74.76037229184604</v>
       </c>
       <c r="G5">
-        <v>1.961595904345665</v>
+        <v>3.849818092842944</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.172131865214002</v>
+        <v>8.654944644573121</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>42.85846674655994</v>
+        <v>37.4354336500292</v>
       </c>
       <c r="N5">
-        <v>12.70671057242162</v>
+        <v>18.3497977147932</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.570110977804111</v>
+        <v>7.66044765646529</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.66733477891911</v>
+        <v>9.50945877992061</v>
       </c>
       <c r="E6">
-        <v>12.26539099722066</v>
+        <v>7.996238191207623</v>
       </c>
       <c r="F6">
-        <v>76.57554790147091</v>
+        <v>74.72981334194499</v>
       </c>
       <c r="G6">
-        <v>1.963917247521595</v>
+        <v>3.850383325684903</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.173696847753967</v>
+        <v>8.655746397046798</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>42.66572197154366</v>
+        <v>37.4063188436326</v>
       </c>
       <c r="N6">
-        <v>12.71937569113635</v>
+        <v>18.35282899703755</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.679738741536529</v>
+        <v>7.68002123084283</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.1711563803345</v>
+        <v>9.61606049406857</v>
       </c>
       <c r="E7">
-        <v>12.62303475625959</v>
+        <v>8.112177837637931</v>
       </c>
       <c r="F7">
-        <v>78.72089616803302</v>
+        <v>74.94489218096223</v>
       </c>
       <c r="G7">
-        <v>1.947642674478973</v>
+        <v>3.84649016539149</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.16299196532859</v>
+        <v>8.650239164158235</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>44.00484669618097</v>
+        <v>37.60913551107266</v>
       </c>
       <c r="N7">
-        <v>12.63087770809626</v>
+        <v>18.33202575074418</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.152506129999231</v>
+        <v>7.769843593202482</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.47860181579391</v>
+        <v>10.08498537443681</v>
       </c>
       <c r="E8">
-        <v>14.25645302133861</v>
+        <v>8.603618032096913</v>
       </c>
       <c r="F8">
-        <v>89.28201209325472</v>
+        <v>75.96697717784203</v>
       </c>
       <c r="G8">
-        <v>1.869815521850483</v>
+        <v>3.830050835000912</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.120367752138329</v>
+        <v>8.627365039747263</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>50.04124038079114</v>
+        <v>38.52076084946198</v>
       </c>
       <c r="N8">
-        <v>12.21586331072154</v>
+        <v>18.24606737965781</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.046891841782102</v>
+        <v>7.957090146803507</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>23.62288455078934</v>
+        <v>10.99003944238269</v>
       </c>
       <c r="E9">
-        <v>18.57198235511061</v>
+        <v>9.49126123316945</v>
       </c>
       <c r="F9">
-        <v>118.7287167511307</v>
+        <v>78.22813521309502</v>
       </c>
       <c r="G9">
-        <v>1.636549650580932</v>
+        <v>3.800411650466114</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.080974658137343</v>
+        <v>8.587619768590663</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65.18013106838491</v>
+        <v>40.35514291978796</v>
       </c>
       <c r="N9">
-        <v>11.01135765481587</v>
+        <v>18.09823932710242</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.046891841782102</v>
+        <v>8.100228967412585</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>23.62288455078934</v>
+        <v>11.63909723824318</v>
       </c>
       <c r="E10">
-        <v>18.57198235511061</v>
+        <v>10.09474622687927</v>
       </c>
       <c r="F10">
-        <v>118.7287167511307</v>
+        <v>80.03960704876262</v>
       </c>
       <c r="G10">
-        <v>1.636549650580932</v>
+        <v>3.780158746377642</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.080974658137343</v>
+        <v>8.561514204464851</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>65.18013106838491</v>
+        <v>41.71982615993626</v>
       </c>
       <c r="N10">
-        <v>11.01135765481587</v>
+        <v>18.00202628812243</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.046891841782102</v>
+        <v>8.166293759782128</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>23.62288455078934</v>
+        <v>11.92969303085821</v>
       </c>
       <c r="E11">
-        <v>18.57198235511061</v>
+        <v>10.35839749140274</v>
       </c>
       <c r="F11">
-        <v>118.7287167511307</v>
+        <v>80.89467457797231</v>
       </c>
       <c r="G11">
-        <v>1.636549650580932</v>
+        <v>3.771262132539901</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.080974658137343</v>
+        <v>8.550306009926489</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>65.18013106838491</v>
+        <v>42.34201511233875</v>
       </c>
       <c r="N11">
-        <v>11.01135765481587</v>
+        <v>17.96089437206667</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.046891841782102</v>
+        <v>8.191425301884765</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>23.62288455078934</v>
+        <v>12.03897819729482</v>
       </c>
       <c r="E12">
-        <v>18.57198235511061</v>
+        <v>10.45665289777127</v>
       </c>
       <c r="F12">
-        <v>118.7287167511307</v>
+        <v>81.22277469112397</v>
       </c>
       <c r="G12">
-        <v>1.636549650580932</v>
+        <v>3.767937581139728</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.080974658137343</v>
+        <v>8.546157420516671</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>65.18013106838491</v>
+        <v>42.57763829889134</v>
       </c>
       <c r="N12">
-        <v>11.01135765481587</v>
+        <v>17.94569336533745</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.046891841782102</v>
+        <v>8.186008049547164</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>23.62288455078934</v>
+        <v>12.01547660149138</v>
       </c>
       <c r="E13">
-        <v>18.57198235511061</v>
+        <v>10.43556251615968</v>
       </c>
       <c r="F13">
-        <v>118.7287167511307</v>
+        <v>81.15192354964776</v>
       </c>
       <c r="G13">
-        <v>1.636549650580932</v>
+        <v>3.768651626103435</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.080974658137343</v>
+        <v>8.547046640662225</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>65.18013106838491</v>
+        <v>42.52689486351262</v>
       </c>
       <c r="N13">
-        <v>11.01135765481587</v>
+        <v>17.94895057592906</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.046891841782102</v>
+        <v>8.168359185361794</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>23.62288455078934</v>
+        <v>11.93869961311821</v>
       </c>
       <c r="E14">
-        <v>18.57198235511061</v>
+        <v>10.36651285100293</v>
       </c>
       <c r="F14">
-        <v>118.7287167511307</v>
+        <v>80.92158221274724</v>
       </c>
       <c r="G14">
-        <v>1.636549650580932</v>
+        <v>3.770987736316495</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.080974658137343</v>
+        <v>8.549962786216243</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>65.18013106838491</v>
+        <v>42.36140072481703</v>
       </c>
       <c r="N14">
-        <v>11.01135765481587</v>
+        <v>17.95963629027356</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.046891841782102</v>
+        <v>8.157562960270949</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>23.62288455078934</v>
+        <v>11.89157053197139</v>
       </c>
       <c r="E15">
-        <v>18.57198235511061</v>
+        <v>10.32401122918804</v>
       </c>
       <c r="F15">
-        <v>118.7287167511307</v>
+        <v>80.78104735988445</v>
       </c>
       <c r="G15">
-        <v>1.636549650580932</v>
+        <v>3.772424420122763</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.080974658137343</v>
+        <v>8.551761466541388</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>65.18013106838491</v>
+        <v>42.26002724142523</v>
       </c>
       <c r="N15">
-        <v>11.01135765481587</v>
+        <v>17.96623027458831</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.046891841782102</v>
+        <v>8.095928682374129</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>23.62288455078934</v>
+        <v>11.62000459220004</v>
       </c>
       <c r="E16">
-        <v>18.57198235511061</v>
+        <v>10.07729531647069</v>
       </c>
       <c r="F16">
-        <v>118.7287167511307</v>
+        <v>79.98433736482352</v>
       </c>
       <c r="G16">
-        <v>1.636549650580932</v>
+        <v>3.780746436178281</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.080974658137343</v>
+        <v>8.562260093278333</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>65.18013106838491</v>
+        <v>41.67917645057818</v>
       </c>
       <c r="N16">
-        <v>11.01135765481587</v>
+        <v>18.00476703268599</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.046891841782102</v>
+        <v>8.058345470248854</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>23.62288455078934</v>
+        <v>11.45214764026961</v>
       </c>
       <c r="E17">
-        <v>18.57198235511061</v>
+        <v>9.92314138825764</v>
       </c>
       <c r="F17">
-        <v>118.7287167511307</v>
+        <v>79.50341741215246</v>
       </c>
       <c r="G17">
-        <v>1.636549650580932</v>
+        <v>3.785932015403551</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.080974658137343</v>
+        <v>8.568871402609972</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>65.18013106838491</v>
+        <v>41.32306326317989</v>
       </c>
       <c r="N17">
-        <v>11.01135765481587</v>
+        <v>18.02908018380808</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.046891841782102</v>
+        <v>8.036819381341308</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>23.62288455078934</v>
+        <v>11.35516613989673</v>
       </c>
       <c r="E18">
-        <v>18.57198235511061</v>
+        <v>9.83345307773647</v>
       </c>
       <c r="F18">
-        <v>118.7287167511307</v>
+        <v>79.22973453149083</v>
       </c>
       <c r="G18">
-        <v>1.636549650580932</v>
+        <v>3.788944486094125</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.080974658137343</v>
+        <v>8.572736882345081</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>65.18013106838491</v>
+        <v>41.11837750224893</v>
       </c>
       <c r="N18">
-        <v>11.01135765481587</v>
+        <v>18.04331282824034</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.046891841782102</v>
+        <v>8.02954729265697</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>23.62288455078934</v>
+        <v>11.3222580640315</v>
       </c>
       <c r="E19">
-        <v>18.57198235511061</v>
+        <v>9.802911141614622</v>
       </c>
       <c r="F19">
-        <v>118.7287167511307</v>
+        <v>79.13757802359952</v>
       </c>
       <c r="G19">
-        <v>1.636549650580932</v>
+        <v>3.789969619136691</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.080974658137343</v>
+        <v>8.574056466308658</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>65.18013106838491</v>
+        <v>41.04910449022122</v>
       </c>
       <c r="N19">
-        <v>11.01135765481587</v>
+        <v>18.0481745424176</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.046891841782102</v>
+        <v>8.062337034382409</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>23.62288455078934</v>
+        <v>11.47006194715335</v>
       </c>
       <c r="E20">
-        <v>18.57198235511061</v>
+        <v>9.939657379104082</v>
       </c>
       <c r="F20">
-        <v>118.7287167511307</v>
+        <v>79.55431007710918</v>
       </c>
       <c r="G20">
-        <v>1.636549650580932</v>
+        <v>3.785376918911024</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.080974658137343</v>
+        <v>8.568161116712538</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>65.18013106838491</v>
+        <v>41.36095889332749</v>
       </c>
       <c r="N20">
-        <v>11.01135765481587</v>
+        <v>18.02646633342388</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.046891841782102</v>
+        <v>8.17354016227512</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>23.62288455078934</v>
+        <v>11.96127205248705</v>
       </c>
       <c r="E21">
-        <v>18.57198235511061</v>
+        <v>10.38683751570137</v>
       </c>
       <c r="F21">
-        <v>118.7287167511307</v>
+        <v>80.98912348978622</v>
       </c>
       <c r="G21">
-        <v>1.636549650580932</v>
+        <v>3.770300368111183</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.080974658137343</v>
+        <v>8.549103647997361</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>65.18013106838491</v>
+        <v>42.41001142016135</v>
       </c>
       <c r="N21">
-        <v>11.01135765481587</v>
+        <v>17.95648750075197</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.046891841782102</v>
+        <v>8.246873404108861</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>23.62288455078934</v>
+        <v>12.27786150784668</v>
       </c>
       <c r="E22">
-        <v>18.57198235511061</v>
+        <v>10.66986018560142</v>
       </c>
       <c r="F22">
-        <v>118.7287167511307</v>
+        <v>81.9518722618955</v>
       </c>
       <c r="G22">
-        <v>1.636549650580932</v>
+        <v>3.760705239440409</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.080974658137343</v>
+        <v>8.537206254743612</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>65.18013106838491</v>
+        <v>43.09562957543309</v>
       </c>
       <c r="N22">
-        <v>11.01135765481587</v>
+        <v>17.91293459891604</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.046891841782102</v>
+        <v>8.207681460595898</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>23.62288455078934</v>
+        <v>12.10932384606093</v>
       </c>
       <c r="E23">
-        <v>18.57198235511061</v>
+        <v>10.51965561808117</v>
       </c>
       <c r="F23">
-        <v>118.7287167511307</v>
+        <v>81.43579891491648</v>
       </c>
       <c r="G23">
-        <v>1.636549650580932</v>
+        <v>3.765803087467872</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.080974658137343</v>
+        <v>8.543505163302726</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>65.18013106838491</v>
+        <v>42.72976067252819</v>
       </c>
       <c r="N23">
-        <v>11.01135765481587</v>
+        <v>17.93598136161989</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.046891841782102</v>
+        <v>8.060532194240029</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>23.62288455078934</v>
+        <v>11.46196437211562</v>
       </c>
       <c r="E24">
-        <v>18.57198235511061</v>
+        <v>9.932193809614908</v>
       </c>
       <c r="F24">
-        <v>118.7287167511307</v>
+        <v>79.53129275638926</v>
       </c>
       <c r="G24">
-        <v>1.636549650580932</v>
+        <v>3.785627780732873</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.080974658137343</v>
+        <v>8.568482035888906</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>65.18013106838491</v>
+        <v>41.34382611379048</v>
       </c>
       <c r="N24">
-        <v>11.01135765481587</v>
+        <v>18.02764726155726</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.046891841782102</v>
+        <v>7.905368642200784</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>23.62288455078934</v>
+        <v>10.74752780847147</v>
       </c>
       <c r="E25">
-        <v>18.57198235511061</v>
+        <v>9.25954274566117</v>
       </c>
       <c r="F25">
-        <v>118.7287167511307</v>
+        <v>77.58953450246631</v>
       </c>
       <c r="G25">
-        <v>1.636549650580932</v>
+        <v>3.808157859729337</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.080974658137343</v>
+        <v>8.597826907568413</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>65.18013106838491</v>
+        <v>39.85510042259699</v>
       </c>
       <c r="N25">
-        <v>11.01135765481587</v>
+        <v>18.13603588120602</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_145/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.794976100260179</v>
+        <v>7.277891033484081</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.21134977393889</v>
+        <v>18.14474527485432</v>
       </c>
       <c r="E2">
-        <v>8.731730803213969</v>
+        <v>14.72646967770215</v>
       </c>
       <c r="F2">
-        <v>76.2614930007023</v>
+        <v>92.41813693635052</v>
       </c>
       <c r="G2">
-        <v>3.825774641169331</v>
+        <v>1.846343147735992</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.621513945549719</v>
+        <v>5.110297523021629</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.77136098768339</v>
+        <v>51.75202584102217</v>
       </c>
       <c r="N2">
-        <v>18.22418924973784</v>
+        <v>12.09282961976579</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.722960676774888</v>
+        <v>6.911215159856546</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.843964667129578</v>
+        <v>16.2682595069706</v>
       </c>
       <c r="E3">
-        <v>8.354471742924877</v>
+        <v>13.40066229600781</v>
       </c>
       <c r="F3">
-        <v>75.42697612543434</v>
+        <v>83.65082777834768</v>
       </c>
       <c r="G3">
-        <v>3.838375321582287</v>
+        <v>1.911312568770398</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.638871752506716</v>
+        <v>5.141333368946554</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>38.04842021022784</v>
+        <v>46.89545281588833</v>
       </c>
       <c r="N3">
-        <v>18.28922054129934</v>
+        <v>12.43561323234177</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.680252210733521</v>
+        <v>6.681015669031101</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.61730752580022</v>
+        <v>15.17707681038837</v>
       </c>
       <c r="E4">
-        <v>8.113523636775536</v>
+        <v>12.62723559114694</v>
       </c>
       <c r="F4">
-        <v>74.94744898485799</v>
+        <v>78.74627774170852</v>
       </c>
       <c r="G4">
-        <v>3.846445018704193</v>
+        <v>1.947449900370167</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.650175505366853</v>
+        <v>5.162868891695176</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>37.6115184348304</v>
+        <v>44.02054032784083</v>
       </c>
       <c r="N4">
-        <v>18.33178553636429</v>
+        <v>12.62983347474583</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.663246776962808</v>
+        <v>6.585966648886117</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.524819305854381</v>
+        <v>14.7396881295955</v>
       </c>
       <c r="E5">
-        <v>8.013056337279645</v>
+        <v>12.31677031231977</v>
       </c>
       <c r="F5">
-        <v>74.76037229184604</v>
+        <v>76.88182000940482</v>
       </c>
       <c r="G5">
-        <v>3.849818092842944</v>
+        <v>1.961595904346066</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.654944644573121</v>
+        <v>5.17213186521407</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>37.4354336500292</v>
+        <v>42.85846674655983</v>
       </c>
       <c r="N5">
-        <v>18.3497977147932</v>
+        <v>12.7067105724217</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.66044765646529</v>
+        <v>6.570110977804057</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.50945877992061</v>
+        <v>14.66733477891921</v>
       </c>
       <c r="E6">
-        <v>7.996238191207623</v>
+        <v>12.26539099722072</v>
       </c>
       <c r="F6">
-        <v>74.72981334194499</v>
+        <v>76.57554790147118</v>
       </c>
       <c r="G6">
-        <v>3.850383325684903</v>
+        <v>1.963917247521831</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.655746397046798</v>
+        <v>5.173696847753968</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>37.4063188436326</v>
+        <v>42.66572197154386</v>
       </c>
       <c r="N6">
-        <v>18.35282899703755</v>
+        <v>12.71937569113635</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.68002123084283</v>
+        <v>6.679738741536551</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.61606049406857</v>
+        <v>15.17115638033459</v>
       </c>
       <c r="E7">
-        <v>8.112177837637931</v>
+        <v>12.62303475625969</v>
       </c>
       <c r="F7">
-        <v>74.94489218096223</v>
+        <v>78.72089616803325</v>
       </c>
       <c r="G7">
-        <v>3.84649016539149</v>
+        <v>1.94764267447884</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.650239164158235</v>
+        <v>5.162991965328658</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>37.60913551107266</v>
+        <v>44.00484669618113</v>
       </c>
       <c r="N7">
-        <v>18.33202575074418</v>
+        <v>12.63087770809614</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.769843593202482</v>
+        <v>7.152506129999188</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.08498537443681</v>
+        <v>17.47860181579381</v>
       </c>
       <c r="E8">
-        <v>8.603618032096913</v>
+        <v>14.25645302133853</v>
       </c>
       <c r="F8">
-        <v>75.96697717784203</v>
+        <v>89.28201209325456</v>
       </c>
       <c r="G8">
-        <v>3.830050835000912</v>
+        <v>1.869815521850504</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.627365039747263</v>
+        <v>5.120367752138393</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>38.52076084946198</v>
+        <v>50.04124038079104</v>
       </c>
       <c r="N8">
-        <v>18.24606737965781</v>
+        <v>12.21586331072145</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.957090146803507</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.99003944238269</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E9">
-        <v>9.49126123316945</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F9">
-        <v>78.22813521309502</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G9">
-        <v>3.800411650466114</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.587619768590663</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>40.35514291978796</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N9">
-        <v>18.09823932710242</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.100228967412585</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.63909723824318</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E10">
-        <v>10.09474622687927</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F10">
-        <v>80.03960704876262</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G10">
-        <v>3.780158746377642</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.561514204464851</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>41.71982615993626</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N10">
-        <v>18.00202628812243</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.166293759782128</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.92969303085821</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E11">
-        <v>10.35839749140274</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F11">
-        <v>80.89467457797231</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G11">
-        <v>3.771262132539901</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.550306009926489</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>42.34201511233875</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N11">
-        <v>17.96089437206667</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.191425301884765</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.03897819729482</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E12">
-        <v>10.45665289777127</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F12">
-        <v>81.22277469112397</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G12">
-        <v>3.767937581139728</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.546157420516671</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>42.57763829889134</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N12">
-        <v>17.94569336533745</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.186008049547164</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.01547660149138</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E13">
-        <v>10.43556251615968</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F13">
-        <v>81.15192354964776</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G13">
-        <v>3.768651626103435</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.547046640662225</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>42.52689486351262</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N13">
-        <v>17.94895057592906</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.168359185361794</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.93869961311821</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E14">
-        <v>10.36651285100293</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F14">
-        <v>80.92158221274724</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G14">
-        <v>3.770987736316495</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.549962786216243</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>42.36140072481703</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N14">
-        <v>17.95963629027356</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.157562960270949</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.89157053197139</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E15">
-        <v>10.32401122918804</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F15">
-        <v>80.78104735988445</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G15">
-        <v>3.772424420122763</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.551761466541388</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>42.26002724142523</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N15">
-        <v>17.96623027458831</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.095928682374129</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.62000459220004</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E16">
-        <v>10.07729531647069</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F16">
-        <v>79.98433736482352</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G16">
-        <v>3.780746436178281</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.562260093278333</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>41.67917645057818</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N16">
-        <v>18.00476703268599</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.058345470248854</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.45214764026961</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E17">
-        <v>9.92314138825764</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F17">
-        <v>79.50341741215246</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G17">
-        <v>3.785932015403551</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.568871402609972</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>41.32306326317989</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N17">
-        <v>18.02908018380808</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.036819381341308</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.35516613989673</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E18">
-        <v>9.83345307773647</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F18">
-        <v>79.22973453149083</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G18">
-        <v>3.788944486094125</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.572736882345081</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>41.11837750224893</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N18">
-        <v>18.04331282824034</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.02954729265697</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.3222580640315</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E19">
-        <v>9.802911141614622</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F19">
-        <v>79.13757802359952</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G19">
-        <v>3.789969619136691</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.574056466308658</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>41.04910449022122</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N19">
-        <v>18.0481745424176</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.062337034382409</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.47006194715335</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E20">
-        <v>9.939657379104082</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F20">
-        <v>79.55431007710918</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G20">
-        <v>3.785376918911024</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.568161116712538</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>41.36095889332749</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N20">
-        <v>18.02646633342388</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.17354016227512</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.96127205248705</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E21">
-        <v>10.38683751570137</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F21">
-        <v>80.98912348978622</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G21">
-        <v>3.770300368111183</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.549103647997361</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>42.41001142016135</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N21">
-        <v>17.95648750075197</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.246873404108861</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.27786150784668</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E22">
-        <v>10.66986018560142</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F22">
-        <v>81.9518722618955</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G22">
-        <v>3.760705239440409</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.537206254743612</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.09562957543309</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N22">
-        <v>17.91293459891604</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.207681460595898</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.10932384606093</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E23">
-        <v>10.51965561808117</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F23">
-        <v>81.43579891491648</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G23">
-        <v>3.765803087467872</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.543505163302726</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.72976067252819</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N23">
-        <v>17.93598136161989</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.060532194240029</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.46196437211562</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E24">
-        <v>9.932193809614908</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F24">
-        <v>79.53129275638926</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G24">
-        <v>3.785627780732873</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.568482035888906</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>41.34382611379048</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N24">
-        <v>18.02764726155726</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.905368642200784</v>
+        <v>8.046891841782102</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.74752780847147</v>
+        <v>23.62288455078924</v>
       </c>
       <c r="E25">
-        <v>9.25954274566117</v>
+        <v>18.57198235511062</v>
       </c>
       <c r="F25">
-        <v>77.58953450246631</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G25">
-        <v>3.808157859729337</v>
+        <v>1.636549650581062</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.597826907568413</v>
+        <v>5.080974658137343</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>39.85510042259699</v>
+        <v>65.1801310683847</v>
       </c>
       <c r="N25">
-        <v>18.13603588120602</v>
+        <v>11.01135765481585</v>
       </c>
       <c r="O25">
         <v>0</v>
